--- a/profiler-analyzer.xlsx
+++ b/profiler-analyzer.xlsx
@@ -14,7 +14,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mj9twkKYi+AdnDvLAsLPdPGzhiIhQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mjjaBxEQiAWckMCy+rYdmpcPtHnjQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -26,30 +26,38 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="AS1">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAX_ZlUWY
+TOBIAS HAPOSAN    (2022-04-12 13:36:57)
+we treat this as a main unit</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="AP1">
       <text>
         <t xml:space="preserve">======
 ID#AAAAX_ZlUWA
 TOBIAS HAPOSAN    (2022-04-12 09:44:18)
-generate from weather scrape</t>
+generate switching from weather scrape</t>
       </text>
     </comment>
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhv1Ohuv3oNOu7qBoFsbxXcAEAuOQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhk2S49xcrPHEELBOBZJRfDA4ZvMw=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="58">
   <si>
     <t>Occupancy</t>
   </si>
   <si>
-    <t>Total Volume</t>
+    <t>Total volume</t>
   </si>
   <si>
     <t>hour</t>
@@ -166,10 +174,10 @@
     <t>water</t>
   </si>
   <si>
-    <t>SPWH_default_availability</t>
+    <t>SPWH_defaultAvailability</t>
   </si>
   <si>
-    <t>favourable_weather</t>
+    <t>SPWH_favourableWeatjer</t>
   </si>
   <si>
     <t>SPWH_use</t>
@@ -206,6 +214,18 @@
   </si>
   <si>
     <t>Unit</t>
+  </si>
+  <si>
+    <t>maxLiterSPWH</t>
+  </si>
+  <si>
+    <t>Limiter</t>
+  </si>
+  <si>
+    <t>liters/30minutes</t>
+  </si>
+  <si>
+    <t>maxLiterAB</t>
   </si>
 </sst>
 </file>
@@ -348,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -389,42 +409,14 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
@@ -477,7 +469,7 @@
             <a:ln cmpd="sng" w="9525">
               <a:solidFill>
                 <a:srgbClr val="4472C4">
-                  <a:alpha val="30196"/>
+                  <a:alpha val="10196"/>
                 </a:srgbClr>
               </a:solidFill>
               <a:prstDash val="solid"/>
@@ -498,7 +490,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>processor!$B$2:$B$49</c:f>
+              <c:f>processor!$A$2:$A$49</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -508,39 +500,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>predicted-profile</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="0B5394">
-                <a:alpha val="50000"/>
-              </a:srgbClr>
-            </a:solidFill>
-            <a:ln cmpd="sng" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="0B5394">
-                  <a:alpha val="100000"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>processor!$B$2:$B$49</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>processor!$AN$2:$AN$49</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-        </c:ser>
+        <c:axId val="1328714732"/>
+        <c:axId val="1821436157"/>
+      </c:areaChart>
+      <c:barChart>
+        <c:barDir val="col"/>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
@@ -551,21 +515,17 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF9900">
-                <a:alpha val="0"/>
-              </a:srgbClr>
+              <a:srgbClr val="0000FF"/>
             </a:solidFill>
-            <a:ln cmpd="sng" w="76200">
+            <a:ln cmpd="sng">
               <a:solidFill>
-                <a:srgbClr val="FF9900">
-                  <a:alpha val="100000"/>
-                </a:srgbClr>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>processor!$B$2:$B$49</c:f>
+              <c:f>processor!$A$2:$A$49</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -585,21 +545,17 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF0000">
-                <a:alpha val="0"/>
-              </a:srgbClr>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
-            <a:ln cmpd="sng" w="76200">
+            <a:ln cmpd="sng">
               <a:solidFill>
-                <a:srgbClr val="FF0000">
-                  <a:alpha val="100000"/>
-                </a:srgbClr>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>processor!$B$2:$B$49</c:f>
+              <c:f>processor!$A$2:$A$49</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -609,11 +565,63 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1726188324"/>
-        <c:axId val="1160812732"/>
-      </c:areaChart>
+        <c:axId val="1328714732"/>
+        <c:axId val="1821436157"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>predicted-profile</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng" w="76200">
+              <a:solidFill>
+                <a:srgbClr val="0B5394">
+                  <a:alpha val="50196"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0B5394">
+                  <a:alpha val="50196"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="0B5394">
+                    <a:alpha val="50196"/>
+                  </a:srgbClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>processor!$A$2:$A$49</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>processor!$AN$2:$AN$49</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1328714732"/>
+        <c:axId val="1821436157"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="1726188324"/>
+        <c:axId val="1328714732"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -640,7 +648,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>Hour</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -665,10 +673,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1160812732"/>
+        <c:crossAx val="1821436157"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1160812732"/>
+        <c:axId val="1821436157"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -715,7 +723,7 @@
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                   </a:rPr>
-                  <a:t/>
+                  <a:t>Liters</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -743,7 +751,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1726188324"/>
+        <c:crossAx val="1328714732"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -778,10 +786,10 @@
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="11106150" cy="6038850"/>
+    <xdr:ext cx="11106150" cy="5381625"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1603991934" name="Chart 1" title="Chart"/>
+        <xdr:cNvPr id="1017868381" name="Chart 1" title="Chart"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1110,45 +1118,39 @@
       <c r="A29" s="1"/>
     </row>
     <row r="30">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.35</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31">
-      <c r="A31" s="1"/>
+      <c r="A31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="7">
+        <f>sum(processor!AN:AN)</f>
+        <v>13699.0152</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32">
       <c r="A32" s="1"/>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="3">
-        <v>0.15</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="5"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="7">
-        <f>sum(processor!AN:AN)</f>
-        <v>5871.006516</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="5"/>
-    </row>
     <row r="35">
       <c r="A35" s="1"/>
     </row>
@@ -4049,11 +4051,11 @@
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:I31"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="B33">
+    <dataValidation type="list" allowBlank="1" sqref="B30">
       <formula1>"5%,10%,15%,20%,25%,30%,35%,40%,45%,50%,55%,60%,65%,70%,75%,80%,85%,90%,95%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4075,16 +4077,17 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="3" width="8.71"/>
-    <col customWidth="1" min="4" max="33" width="6.43"/>
+    <col customWidth="1" min="4" max="33" width="8.14"/>
     <col customWidth="1" min="34" max="34" width="8.71"/>
     <col customWidth="1" min="35" max="35" width="5.29"/>
     <col customWidth="1" min="36" max="37" width="8.71"/>
-    <col customWidth="1" min="38" max="38" width="4.71"/>
+    <col customWidth="1" min="38" max="38" width="2.57"/>
     <col customWidth="1" min="39" max="39" width="7.0"/>
-    <col customWidth="1" min="40" max="40" width="13.57"/>
+    <col customWidth="1" min="40" max="40" width="13.71"/>
     <col customWidth="1" min="41" max="42" width="8.57"/>
     <col customWidth="1" min="43" max="44" width="6.57"/>
-    <col customWidth="1" min="45" max="68" width="10.29"/>
+    <col customWidth="1" min="45" max="46" width="16.29"/>
+    <col customWidth="1" min="47" max="68" width="10.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4348,28 +4351,28 @@
         <v>888.8781265</v>
       </c>
       <c r="AH2" s="12">
-        <f t="shared" ref="AH2:AH49" si="1">AVERAGE(D2:AG2)</f>
+        <f t="shared" ref="AH2:AH49" si="2">AVERAGE(D2:AG2)</f>
         <v>915.3034282</v>
       </c>
       <c r="AI2" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ2" s="12">
-        <f t="shared" ref="AJ2:AJ49" si="2">(1/AI2)*AH2</f>
+        <f t="shared" ref="AJ2:AJ49" si="3">(1/AI2)*AH2</f>
         <v>1525.505714</v>
       </c>
       <c r="AK2" s="12">
-        <f t="shared" ref="AK2:AK49" si="3">AJ2/100</f>
+        <f t="shared" ref="AK2:AK49" si="4">AJ2/100</f>
         <v>15.25505714</v>
       </c>
       <c r="AL2" s="14"/>
       <c r="AM2" s="15">
-        <f>dashboard!B33</f>
-        <v>0.15</v>
+        <f>dashboard!B30</f>
+        <v>0.35</v>
       </c>
       <c r="AN2" s="16">
-        <f t="shared" ref="AN2:AN49" si="4">AM2*AJ2</f>
-        <v>228.825857</v>
+        <f t="shared" ref="AN2:AN49" si="5">AM2*AJ2</f>
+        <v>533.9269998</v>
       </c>
       <c r="AO2" s="12" t="s">
         <v>46</v>
@@ -4378,20 +4381,20 @@
         <v>47</v>
       </c>
       <c r="AQ2" s="18" t="str">
-        <f t="shared" ref="AQ2:AQ49" si="5">if(AND(AO2="Available",AP2="Favourable"), "ON", "OFF")</f>
+        <f t="shared" ref="AQ2:AR2" si="1">if(AS2&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR2" s="18" t="str">
-        <f t="shared" ref="AR2:AR49" si="6">if(AQ2="OFF", "ON", "OFF")</f>
+        <f t="shared" si="1"/>
         <v>ON</v>
       </c>
-      <c r="AS2" s="16">
-        <f t="shared" ref="AS2:AS49" si="7">if(AQ2="ON", AN2, 0)</f>
+      <c r="AS2" s="17">
+        <f>if(and(AN2&gt;index!$C$2, AO2="available", AP2="favourable"), index!$C$2, if(and(AO2="available", AP2="favourable"), AN2, 0))</f>
         <v>0</v>
       </c>
       <c r="AT2" s="16">
-        <f t="shared" ref="AT2:AT49" si="8">if(AR2="ON", AN2, 0)</f>
-        <v>228.825857</v>
+        <f t="shared" ref="AT2:AT49" si="7">AN2-AS2</f>
+        <v>533.9269998</v>
       </c>
       <c r="AU2" s="16"/>
       <c r="AV2" s="16"/>
@@ -4517,28 +4520,28 @@
         <v>964.326072</v>
       </c>
       <c r="AH3" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>781.1422595</v>
       </c>
       <c r="AI3" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ3" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1301.903766</v>
       </c>
       <c r="AK3" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.01903766</v>
       </c>
       <c r="AL3" s="14"/>
       <c r="AM3" s="13">
-        <f t="shared" ref="AM3:AM49" si="9">$AM$2</f>
-        <v>0.15</v>
+        <f t="shared" ref="AM3:AM49" si="8">$AM$2</f>
+        <v>0.35</v>
       </c>
       <c r="AN3" s="16">
-        <f t="shared" si="4"/>
-        <v>195.2855649</v>
+        <f t="shared" si="5"/>
+        <v>455.6663181</v>
       </c>
       <c r="AO3" s="12" t="s">
         <v>46</v>
@@ -4547,20 +4550,20 @@
         <v>47</v>
       </c>
       <c r="AQ3" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ3:AR3" si="6">if(AS3&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR3" s="18" t="str">
         <f t="shared" si="6"/>
         <v>ON</v>
       </c>
-      <c r="AS3" s="16">
+      <c r="AS3" s="17">
+        <f>if(and(AN3&gt;index!$C$2, AO3="available", AP3="favourable"), index!$C$2, if(and(AO3="available", AP3="favourable"), AN3, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT3" s="16">
-        <f t="shared" si="8"/>
-        <v>195.2855649</v>
+        <v>455.6663181</v>
       </c>
       <c r="AU3" s="16"/>
       <c r="AV3" s="16"/>
@@ -4686,28 +4689,28 @@
         <v>354.7293651</v>
       </c>
       <c r="AH4" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>323.930955</v>
       </c>
       <c r="AI4" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ4" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>539.884925</v>
       </c>
       <c r="AK4" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.39884925</v>
       </c>
       <c r="AL4" s="14"/>
       <c r="AM4" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN4" s="16">
-        <f t="shared" si="4"/>
-        <v>80.98273875</v>
+        <f t="shared" si="5"/>
+        <v>188.9597237</v>
       </c>
       <c r="AO4" s="12" t="s">
         <v>46</v>
@@ -4716,20 +4719,20 @@
         <v>47</v>
       </c>
       <c r="AQ4" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ4:AR4" si="9">if(AS4&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR4" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>ON</v>
       </c>
-      <c r="AS4" s="16">
+      <c r="AS4" s="17">
+        <f>if(and(AN4&gt;index!$C$2, AO4="available", AP4="favourable"), index!$C$2, if(and(AO4="available", AP4="favourable"), AN4, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT4" s="16">
-        <f t="shared" si="8"/>
-        <v>80.98273875</v>
+        <v>188.9597237</v>
       </c>
       <c r="AU4" s="16"/>
       <c r="AV4" s="16"/>
@@ -4855,28 +4858,28 @@
         <v>209.1512674</v>
       </c>
       <c r="AH5" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>282.7916712</v>
       </c>
       <c r="AI5" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ5" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>471.319452</v>
       </c>
       <c r="AK5" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.71319452</v>
       </c>
       <c r="AL5" s="14"/>
       <c r="AM5" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN5" s="16">
-        <f t="shared" si="4"/>
-        <v>70.6979178</v>
+        <f t="shared" si="5"/>
+        <v>164.9618082</v>
       </c>
       <c r="AO5" s="12" t="s">
         <v>46</v>
@@ -4885,20 +4888,20 @@
         <v>47</v>
       </c>
       <c r="AQ5" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ5:AR5" si="10">if(AS5&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR5" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>ON</v>
       </c>
-      <c r="AS5" s="16">
+      <c r="AS5" s="17">
+        <f>if(and(AN5&gt;index!$C$2, AO5="available", AP5="favourable"), index!$C$2, if(and(AO5="available", AP5="favourable"), AN5, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT5" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT5" s="16">
-        <f t="shared" si="8"/>
-        <v>70.6979178</v>
+        <v>164.9618082</v>
       </c>
       <c r="AU5" s="16"/>
       <c r="AV5" s="16"/>
@@ -5024,28 +5027,28 @@
         <v>205.2687484</v>
       </c>
       <c r="AH6" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>213.1295526</v>
       </c>
       <c r="AI6" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ6" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>355.215921</v>
       </c>
       <c r="AK6" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.55215921</v>
       </c>
       <c r="AL6" s="14"/>
       <c r="AM6" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN6" s="16">
-        <f t="shared" si="4"/>
-        <v>53.28238815</v>
+        <f t="shared" si="5"/>
+        <v>124.3255724</v>
       </c>
       <c r="AO6" s="12" t="s">
         <v>46</v>
@@ -5054,20 +5057,20 @@
         <v>47</v>
       </c>
       <c r="AQ6" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ6:AR6" si="11">if(AS6&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR6" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>ON</v>
       </c>
-      <c r="AS6" s="16">
+      <c r="AS6" s="17">
+        <f>if(and(AN6&gt;index!$C$2, AO6="available", AP6="favourable"), index!$C$2, if(and(AO6="available", AP6="favourable"), AN6, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT6" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT6" s="16">
-        <f t="shared" si="8"/>
-        <v>53.28238815</v>
+        <v>124.3255724</v>
       </c>
       <c r="AU6" s="16"/>
       <c r="AV6" s="16"/>
@@ -5193,28 +5196,28 @@
         <v>172.7857114</v>
       </c>
       <c r="AH7" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>163.8855533</v>
       </c>
       <c r="AI7" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>273.1425889</v>
       </c>
       <c r="AK7" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.731425889</v>
       </c>
       <c r="AL7" s="14"/>
       <c r="AM7" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN7" s="16">
-        <f t="shared" si="4"/>
-        <v>40.97138834</v>
+        <f t="shared" si="5"/>
+        <v>95.59990612</v>
       </c>
       <c r="AO7" s="12" t="s">
         <v>46</v>
@@ -5223,20 +5226,20 @@
         <v>47</v>
       </c>
       <c r="AQ7" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ7:AR7" si="12">if(AS7&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR7" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>ON</v>
       </c>
-      <c r="AS7" s="16">
+      <c r="AS7" s="17">
+        <f>if(and(AN7&gt;index!$C$2, AO7="available", AP7="favourable"), index!$C$2, if(and(AO7="available", AP7="favourable"), AN7, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT7" s="16">
-        <f t="shared" si="8"/>
-        <v>40.97138834</v>
+        <v>95.59990612</v>
       </c>
       <c r="AU7" s="16"/>
       <c r="AV7" s="16"/>
@@ -5362,28 +5365,28 @@
         <v>133.3891015</v>
       </c>
       <c r="AH8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>142.3071286</v>
       </c>
       <c r="AI8" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ8" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>237.1785477</v>
       </c>
       <c r="AK8" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.371785477</v>
       </c>
       <c r="AL8" s="14"/>
       <c r="AM8" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN8" s="16">
-        <f t="shared" si="4"/>
-        <v>35.57678215</v>
+        <f t="shared" si="5"/>
+        <v>83.01249168</v>
       </c>
       <c r="AO8" s="12" t="s">
         <v>46</v>
@@ -5392,20 +5395,20 @@
         <v>47</v>
       </c>
       <c r="AQ8" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ8:AR8" si="13">if(AS8&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR8" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>ON</v>
       </c>
-      <c r="AS8" s="16">
+      <c r="AS8" s="17">
+        <f>if(and(AN8&gt;index!$C$2, AO8="available", AP8="favourable"), index!$C$2, if(and(AO8="available", AP8="favourable"), AN8, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT8" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT8" s="16">
-        <f t="shared" si="8"/>
-        <v>35.57678215</v>
+        <v>83.01249168</v>
       </c>
       <c r="AU8" s="16"/>
       <c r="AV8" s="16"/>
@@ -5531,28 +5534,28 @@
         <v>124.5085689</v>
       </c>
       <c r="AH9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>119.7362231</v>
       </c>
       <c r="AI9" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>199.5603719</v>
       </c>
       <c r="AK9" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.995603719</v>
       </c>
       <c r="AL9" s="14"/>
       <c r="AM9" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN9" s="16">
-        <f t="shared" si="4"/>
-        <v>29.93405578</v>
+        <f t="shared" si="5"/>
+        <v>69.84613015</v>
       </c>
       <c r="AO9" s="12" t="s">
         <v>46</v>
@@ -5561,20 +5564,20 @@
         <v>47</v>
       </c>
       <c r="AQ9" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ9:AR9" si="14">if(AS9&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR9" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="14"/>
         <v>ON</v>
       </c>
-      <c r="AS9" s="16">
+      <c r="AS9" s="17">
+        <f>if(and(AN9&gt;index!$C$2, AO9="available", AP9="favourable"), index!$C$2, if(and(AO9="available", AP9="favourable"), AN9, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT9" s="16">
-        <f t="shared" si="8"/>
-        <v>29.93405578</v>
+        <v>69.84613015</v>
       </c>
       <c r="AU9" s="16"/>
       <c r="AV9" s="16"/>
@@ -5700,28 +5703,28 @@
         <v>102.1710006</v>
       </c>
       <c r="AH10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>109.5750235</v>
       </c>
       <c r="AI10" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>182.6250391</v>
       </c>
       <c r="AK10" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.826250391</v>
       </c>
       <c r="AL10" s="14"/>
       <c r="AM10" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN10" s="16">
-        <f t="shared" si="4"/>
-        <v>27.39375586</v>
+        <f t="shared" si="5"/>
+        <v>63.91876368</v>
       </c>
       <c r="AO10" s="12" t="s">
         <v>46</v>
@@ -5730,20 +5733,20 @@
         <v>47</v>
       </c>
       <c r="AQ10" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ10:AR10" si="15">if(AS10&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR10" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>ON</v>
       </c>
-      <c r="AS10" s="16">
+      <c r="AS10" s="17">
+        <f>if(and(AN10&gt;index!$C$2, AO10="available", AP10="favourable"), index!$C$2, if(and(AO10="available", AP10="favourable"), AN10, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT10" s="16">
-        <f t="shared" si="8"/>
-        <v>27.39375586</v>
+        <v>63.91876368</v>
       </c>
       <c r="AU10" s="16"/>
       <c r="AV10" s="16"/>
@@ -5869,28 +5872,28 @@
         <v>87.97197841</v>
       </c>
       <c r="AH11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>88.9604875</v>
       </c>
       <c r="AI11" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ11" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>148.2674792</v>
       </c>
       <c r="AK11" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.482674792</v>
       </c>
       <c r="AL11" s="14"/>
       <c r="AM11" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN11" s="16">
-        <f t="shared" si="4"/>
-        <v>22.24012188</v>
+        <f t="shared" si="5"/>
+        <v>51.89361771</v>
       </c>
       <c r="AO11" s="12" t="s">
         <v>46</v>
@@ -5899,20 +5902,20 @@
         <v>47</v>
       </c>
       <c r="AQ11" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ11:AR11" si="16">if(AS11&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR11" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="16"/>
         <v>ON</v>
       </c>
-      <c r="AS11" s="16">
+      <c r="AS11" s="17">
+        <f>if(and(AN11&gt;index!$C$2, AO11="available", AP11="favourable"), index!$C$2, if(and(AO11="available", AP11="favourable"), AN11, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT11" s="16">
-        <f t="shared" si="8"/>
-        <v>22.24012188</v>
+        <v>51.89361771</v>
       </c>
       <c r="AU11" s="16"/>
       <c r="AV11" s="16"/>
@@ -6038,28 +6041,28 @@
         <v>30.35927721</v>
       </c>
       <c r="AH12" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30.29757124</v>
       </c>
       <c r="AI12" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ12" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50.49595207</v>
       </c>
       <c r="AK12" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5049595207</v>
       </c>
       <c r="AL12" s="14"/>
       <c r="AM12" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN12" s="16">
-        <f t="shared" si="4"/>
-        <v>7.57439281</v>
+        <f t="shared" si="5"/>
+        <v>17.67358322</v>
       </c>
       <c r="AO12" s="12" t="s">
         <v>46</v>
@@ -6068,20 +6071,20 @@
         <v>47</v>
       </c>
       <c r="AQ12" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ12:AR12" si="17">if(AS12&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR12" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>ON</v>
       </c>
-      <c r="AS12" s="16">
+      <c r="AS12" s="17">
+        <f>if(and(AN12&gt;index!$C$2, AO12="available", AP12="favourable"), index!$C$2, if(and(AO12="available", AP12="favourable"), AN12, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT12" s="16">
-        <f t="shared" si="8"/>
-        <v>7.57439281</v>
+        <v>17.67358322</v>
       </c>
       <c r="AU12" s="16"/>
       <c r="AV12" s="16"/>
@@ -6207,28 +6210,28 @@
         <v>39.15076213</v>
       </c>
       <c r="AH13" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.06183175</v>
       </c>
       <c r="AI13" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ13" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>51.76971958</v>
       </c>
       <c r="AK13" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.5176971958</v>
       </c>
       <c r="AL13" s="14"/>
       <c r="AM13" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN13" s="16">
-        <f t="shared" si="4"/>
-        <v>7.765457936</v>
+        <f t="shared" si="5"/>
+        <v>18.11940185</v>
       </c>
       <c r="AO13" s="12" t="s">
         <v>46</v>
@@ -6237,20 +6240,20 @@
         <v>47</v>
       </c>
       <c r="AQ13" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ13:AR13" si="18">if(AS13&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR13" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>ON</v>
       </c>
-      <c r="AS13" s="16">
+      <c r="AS13" s="17">
+        <f>if(and(AN13&gt;index!$C$2, AO13="available", AP13="favourable"), index!$C$2, if(and(AO13="available", AP13="favourable"), AN13, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT13" s="16">
-        <f t="shared" si="8"/>
-        <v>7.765457936</v>
+        <v>18.11940185</v>
       </c>
       <c r="AU13" s="16"/>
       <c r="AV13" s="16"/>
@@ -6376,28 +6379,28 @@
         <v>84.88650584</v>
       </c>
       <c r="AH14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>77.22056799</v>
       </c>
       <c r="AI14" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ14" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>128.7009467</v>
       </c>
       <c r="AK14" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.287009467</v>
       </c>
       <c r="AL14" s="14"/>
       <c r="AM14" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN14" s="16">
-        <f t="shared" si="4"/>
-        <v>19.305142</v>
+        <f t="shared" si="5"/>
+        <v>45.04533133</v>
       </c>
       <c r="AO14" s="12" t="s">
         <v>46</v>
@@ -6406,20 +6409,20 @@
         <v>47</v>
       </c>
       <c r="AQ14" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ14:AR14" si="19">if(AS14&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR14" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="19"/>
         <v>ON</v>
       </c>
-      <c r="AS14" s="16">
+      <c r="AS14" s="17">
+        <f>if(and(AN14&gt;index!$C$2, AO14="available", AP14="favourable"), index!$C$2, if(and(AO14="available", AP14="favourable"), AN14, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT14" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT14" s="16">
-        <f t="shared" si="8"/>
-        <v>19.305142</v>
+        <v>45.04533133</v>
       </c>
       <c r="AU14" s="16"/>
       <c r="AV14" s="16"/>
@@ -6545,28 +6548,28 @@
         <v>57.8748144</v>
       </c>
       <c r="AH15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.81953449</v>
       </c>
       <c r="AI15" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ15" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>74.69922416</v>
       </c>
       <c r="AK15" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.7469922416</v>
       </c>
       <c r="AL15" s="14"/>
       <c r="AM15" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN15" s="16">
-        <f t="shared" si="4"/>
-        <v>11.20488362</v>
+        <f t="shared" si="5"/>
+        <v>26.14472845</v>
       </c>
       <c r="AO15" s="12" t="s">
         <v>46</v>
@@ -6575,20 +6578,20 @@
         <v>47</v>
       </c>
       <c r="AQ15" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ15:AR15" si="20">if(AS15&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR15" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="20"/>
         <v>ON</v>
       </c>
-      <c r="AS15" s="16">
+      <c r="AS15" s="17">
+        <f>if(and(AN15&gt;index!$C$2, AO15="available", AP15="favourable"), index!$C$2, if(and(AO15="available", AP15="favourable"), AN15, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT15" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT15" s="16">
-        <f t="shared" si="8"/>
-        <v>11.20488362</v>
+        <v>26.14472845</v>
       </c>
       <c r="AU15" s="16"/>
       <c r="AV15" s="16"/>
@@ -6714,28 +6717,28 @@
         <v>167.6732401</v>
       </c>
       <c r="AH16" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>148.7744874</v>
       </c>
       <c r="AI16" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ16" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>247.957479</v>
       </c>
       <c r="AK16" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.47957479</v>
       </c>
       <c r="AL16" s="14"/>
       <c r="AM16" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN16" s="16">
-        <f t="shared" si="4"/>
-        <v>37.19362185</v>
+        <f t="shared" si="5"/>
+        <v>86.78511765</v>
       </c>
       <c r="AO16" s="12" t="s">
         <v>46</v>
@@ -6744,20 +6747,20 @@
         <v>47</v>
       </c>
       <c r="AQ16" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ16:AR16" si="21">if(AS16&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR16" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="21"/>
         <v>ON</v>
       </c>
-      <c r="AS16" s="16">
+      <c r="AS16" s="17">
+        <f>if(and(AN16&gt;index!$C$2, AO16="available", AP16="favourable"), index!$C$2, if(and(AO16="available", AP16="favourable"), AN16, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT16" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT16" s="16">
-        <f t="shared" si="8"/>
-        <v>37.19362185</v>
+        <v>86.78511765</v>
       </c>
       <c r="AU16" s="16"/>
       <c r="AV16" s="16"/>
@@ -6883,28 +6886,28 @@
         <v>201.558239</v>
       </c>
       <c r="AH17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>182.8952951</v>
       </c>
       <c r="AI17" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ17" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>304.8254918</v>
       </c>
       <c r="AK17" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.048254918</v>
       </c>
       <c r="AL17" s="14"/>
       <c r="AM17" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN17" s="16">
-        <f t="shared" si="4"/>
-        <v>45.72382377</v>
+        <f t="shared" si="5"/>
+        <v>106.6889221</v>
       </c>
       <c r="AO17" s="12" t="s">
         <v>46</v>
@@ -6913,20 +6916,20 @@
         <v>47</v>
       </c>
       <c r="AQ17" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ17:AR17" si="22">if(AS17&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR17" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="22"/>
         <v>ON</v>
       </c>
-      <c r="AS17" s="16">
+      <c r="AS17" s="17">
+        <f>if(and(AN17&gt;index!$C$2, AO17="available", AP17="favourable"), index!$C$2, if(and(AO17="available", AP17="favourable"), AN17, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT17" s="16">
-        <f t="shared" si="8"/>
-        <v>45.72382377</v>
+        <v>106.6889221</v>
       </c>
       <c r="AU17" s="16"/>
       <c r="AV17" s="16"/>
@@ -7052,28 +7055,28 @@
         <v>184.0245103</v>
       </c>
       <c r="AH18" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>199.7836569</v>
       </c>
       <c r="AI18" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ18" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>332.9727614</v>
       </c>
       <c r="AK18" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.329727614</v>
       </c>
       <c r="AL18" s="14"/>
       <c r="AM18" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN18" s="16">
-        <f t="shared" si="4"/>
-        <v>49.94591421</v>
+        <f t="shared" si="5"/>
+        <v>116.5404665</v>
       </c>
       <c r="AO18" s="12" t="s">
         <v>46</v>
@@ -7082,20 +7085,20 @@
         <v>47</v>
       </c>
       <c r="AQ18" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ18:AR18" si="23">if(AS18&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR18" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="23"/>
         <v>ON</v>
       </c>
-      <c r="AS18" s="16">
+      <c r="AS18" s="17">
+        <f>if(and(AN18&gt;index!$C$2, AO18="available", AP18="favourable"), index!$C$2, if(and(AO18="available", AP18="favourable"), AN18, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT18" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT18" s="16">
-        <f t="shared" si="8"/>
-        <v>49.94591421</v>
+        <v>116.5404665</v>
       </c>
       <c r="AU18" s="16"/>
       <c r="AV18" s="16"/>
@@ -7221,28 +7224,28 @@
         <v>244.5770574</v>
       </c>
       <c r="AH19" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>208.18108</v>
       </c>
       <c r="AI19" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ19" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>346.9684667</v>
       </c>
       <c r="AK19" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.469684667</v>
       </c>
       <c r="AL19" s="14"/>
       <c r="AM19" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN19" s="16">
-        <f t="shared" si="4"/>
-        <v>52.04527001</v>
+        <f t="shared" si="5"/>
+        <v>121.4389633</v>
       </c>
       <c r="AO19" s="19" t="s">
         <v>46</v>
@@ -7251,20 +7254,20 @@
         <v>47</v>
       </c>
       <c r="AQ19" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ19:AR19" si="24">if(AS19&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR19" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>ON</v>
       </c>
-      <c r="AS19" s="16">
+      <c r="AS19" s="17">
+        <f>if(and(AN19&gt;index!$C$2, AO19="available", AP19="favourable"), index!$C$2, if(and(AO19="available", AP19="favourable"), AN19, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT19" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT19" s="16">
-        <f t="shared" si="8"/>
-        <v>52.04527001</v>
+        <v>121.4389633</v>
       </c>
       <c r="AU19" s="16"/>
       <c r="AV19" s="16"/>
@@ -7390,28 +7393,28 @@
         <v>218.9351823</v>
       </c>
       <c r="AH20" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>225.4207265</v>
       </c>
       <c r="AI20" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ20" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>375.7012108</v>
       </c>
       <c r="AK20" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.757012108</v>
       </c>
       <c r="AL20" s="14"/>
       <c r="AM20" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN20" s="16">
-        <f t="shared" si="4"/>
-        <v>56.35518162</v>
+        <f t="shared" si="5"/>
+        <v>131.4954238</v>
       </c>
       <c r="AO20" s="19" t="s">
         <v>48</v>
@@ -7420,19 +7423,19 @@
         <v>49</v>
       </c>
       <c r="AQ20" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ20:AR20" si="25">if(AS20&gt;1, "ON", "OFF")</f>
         <v>ON</v>
       </c>
       <c r="AR20" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>OFF</v>
       </c>
-      <c r="AS20" s="16">
+      <c r="AS20" s="17">
+        <f>if(and(AN20&gt;index!$C$2, AO20="available", AP20="favourable"), index!$C$2, if(and(AO20="available", AP20="favourable"), AN20, 0))</f>
+        <v>131.4954238</v>
+      </c>
+      <c r="AT20" s="16">
         <f t="shared" si="7"/>
-        <v>56.35518162</v>
-      </c>
-      <c r="AT20" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU20" s="16"/>
@@ -7559,50 +7562,50 @@
         <v>290.041833</v>
       </c>
       <c r="AH21" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>256.5267684</v>
       </c>
       <c r="AI21" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ21" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>427.544614</v>
       </c>
       <c r="AK21" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.27544614</v>
       </c>
       <c r="AL21" s="14"/>
       <c r="AM21" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN21" s="16">
-        <f t="shared" si="4"/>
-        <v>64.1316921</v>
+        <f t="shared" si="5"/>
+        <v>149.6406149</v>
       </c>
       <c r="AO21" s="19" t="s">
         <v>48</v>
       </c>
       <c r="AP21" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AQ21" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ21:AR21" si="26">if(AS21&gt;1, "ON", "OFF")</f>
+        <v>ON</v>
+      </c>
+      <c r="AR21" s="18" t="str">
+        <f t="shared" si="26"/>
         <v>OFF</v>
       </c>
-      <c r="AR21" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>ON</v>
-      </c>
-      <c r="AS21" s="16">
+      <c r="AS21" s="17">
+        <f>if(and(AN21&gt;index!$C$2, AO21="available", AP21="favourable"), index!$C$2, if(and(AO21="available", AP21="favourable"), AN21, 0))</f>
+        <v>149.6406149</v>
+      </c>
+      <c r="AT21" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="AT21" s="16">
-        <f t="shared" si="8"/>
-        <v>64.1316921</v>
       </c>
       <c r="AU21" s="16"/>
       <c r="AV21" s="16"/>
@@ -7728,50 +7731,50 @@
         <v>267.8214379</v>
       </c>
       <c r="AH22" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>226.9700239</v>
       </c>
       <c r="AI22" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ22" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>378.2833731</v>
       </c>
       <c r="AK22" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.782833731</v>
       </c>
       <c r="AL22" s="14"/>
       <c r="AM22" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN22" s="16">
-        <f t="shared" si="4"/>
-        <v>56.74250597</v>
+        <f t="shared" si="5"/>
+        <v>132.3991806</v>
       </c>
       <c r="AO22" s="19" t="s">
         <v>48</v>
       </c>
       <c r="AP22" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AQ22" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ22:AR22" si="27">if(AS22&gt;1, "ON", "OFF")</f>
+        <v>OFF</v>
+      </c>
+      <c r="AR22" s="18" t="str">
+        <f t="shared" si="27"/>
         <v>ON</v>
       </c>
-      <c r="AR22" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>OFF</v>
-      </c>
-      <c r="AS22" s="16">
+      <c r="AS22" s="17">
+        <f>if(and(AN22&gt;index!$C$2, AO22="available", AP22="favourable"), index!$C$2, if(and(AO22="available", AP22="favourable"), AN22, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT22" s="16">
         <f t="shared" si="7"/>
-        <v>56.74250597</v>
-      </c>
-      <c r="AT22" s="16">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>132.3991806</v>
       </c>
       <c r="AU22" s="16"/>
       <c r="AV22" s="16"/>
@@ -7897,28 +7900,28 @@
         <v>471.7330206</v>
       </c>
       <c r="AH23" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>429.1280868</v>
       </c>
       <c r="AI23" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ23" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>715.2134781</v>
       </c>
       <c r="AK23" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.152134781</v>
       </c>
       <c r="AL23" s="14"/>
       <c r="AM23" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN23" s="16">
-        <f t="shared" si="4"/>
-        <v>107.2820217</v>
+        <f t="shared" si="5"/>
+        <v>250.3247173</v>
       </c>
       <c r="AO23" s="19" t="s">
         <v>48</v>
@@ -7927,19 +7930,19 @@
         <v>49</v>
       </c>
       <c r="AQ23" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ23:AR23" si="28">if(AS23&gt;1, "ON", "OFF")</f>
         <v>ON</v>
       </c>
       <c r="AR23" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="28"/>
         <v>OFF</v>
       </c>
-      <c r="AS23" s="16">
+      <c r="AS23" s="17">
+        <f>if(and(AN23&gt;index!$C$2, AO23="available", AP23="favourable"), index!$C$2, if(and(AO23="available", AP23="favourable"), AN23, 0))</f>
+        <v>250.3247173</v>
+      </c>
+      <c r="AT23" s="16">
         <f t="shared" si="7"/>
-        <v>107.2820217</v>
-      </c>
-      <c r="AT23" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU23" s="16"/>
@@ -8066,28 +8069,28 @@
         <v>495.135831</v>
       </c>
       <c r="AH24" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>482.7719611</v>
       </c>
       <c r="AI24" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ24" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>804.6199352</v>
       </c>
       <c r="AK24" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.046199352</v>
       </c>
       <c r="AL24" s="14"/>
       <c r="AM24" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN24" s="16">
-        <f t="shared" si="4"/>
-        <v>120.6929903</v>
+        <f t="shared" si="5"/>
+        <v>281.6169773</v>
       </c>
       <c r="AO24" s="19" t="s">
         <v>48</v>
@@ -8096,19 +8099,19 @@
         <v>49</v>
       </c>
       <c r="AQ24" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ24:AR24" si="29">if(AS24&gt;1, "ON", "OFF")</f>
         <v>ON</v>
       </c>
       <c r="AR24" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="29"/>
         <v>OFF</v>
       </c>
-      <c r="AS24" s="16">
+      <c r="AS24" s="17">
+        <f>if(and(AN24&gt;index!$C$2, AO24="available", AP24="favourable"), index!$C$2, if(and(AO24="available", AP24="favourable"), AN24, 0))</f>
+        <v>281.6169773</v>
+      </c>
+      <c r="AT24" s="16">
         <f t="shared" si="7"/>
-        <v>120.6929903</v>
-      </c>
-      <c r="AT24" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU24" s="16"/>
@@ -8235,50 +8238,50 @@
         <v>375.9506338</v>
       </c>
       <c r="AH25" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>443.5062091</v>
       </c>
       <c r="AI25" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ25" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>739.1770151</v>
       </c>
       <c r="AK25" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.391770151</v>
       </c>
       <c r="AL25" s="14"/>
       <c r="AM25" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN25" s="16">
-        <f t="shared" si="4"/>
-        <v>110.8765523</v>
+        <f t="shared" si="5"/>
+        <v>258.7119553</v>
       </c>
       <c r="AO25" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AP25" s="16" t="s">
-        <v>47</v>
+      <c r="AP25" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="AQ25" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ25:AR25" si="30">if(AS25&gt;1, "ON", "OFF")</f>
+        <v>ON</v>
+      </c>
+      <c r="AR25" s="18" t="str">
+        <f t="shared" si="30"/>
         <v>OFF</v>
       </c>
-      <c r="AR25" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>ON</v>
-      </c>
-      <c r="AS25" s="16">
+      <c r="AS25" s="17">
+        <f>if(and(AN25&gt;index!$C$2, AO25="available", AP25="favourable"), index!$C$2, if(and(AO25="available", AP25="favourable"), AN25, 0))</f>
+        <v>258.7119553</v>
+      </c>
+      <c r="AT25" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="AT25" s="16">
-        <f t="shared" si="8"/>
-        <v>110.8765523</v>
       </c>
       <c r="AU25" s="16"/>
       <c r="AV25" s="16"/>
@@ -8404,50 +8407,50 @@
         <v>409.8159181</v>
       </c>
       <c r="AH26" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>473.0052271</v>
       </c>
       <c r="AI26" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ26" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>788.3420451</v>
       </c>
       <c r="AK26" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.883420451</v>
       </c>
       <c r="AL26" s="14"/>
       <c r="AM26" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN26" s="16">
-        <f t="shared" si="4"/>
-        <v>118.2513068</v>
+        <f t="shared" si="5"/>
+        <v>275.9197158</v>
       </c>
       <c r="AO26" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AP26" s="16" t="s">
+      <c r="AP26" s="17" t="s">
         <v>47</v>
       </c>
       <c r="AQ26" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ26:AR26" si="31">if(AS26&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR26" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>ON</v>
       </c>
-      <c r="AS26" s="16">
+      <c r="AS26" s="17">
+        <f>if(and(AN26&gt;index!$C$2, AO26="available", AP26="favourable"), index!$C$2, if(and(AO26="available", AP26="favourable"), AN26, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT26" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT26" s="16">
-        <f t="shared" si="8"/>
-        <v>118.2513068</v>
+        <v>275.9197158</v>
       </c>
       <c r="AU26" s="16"/>
       <c r="AV26" s="16"/>
@@ -8573,28 +8576,28 @@
         <v>641.8773185</v>
       </c>
       <c r="AH27" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>515.3678231</v>
       </c>
       <c r="AI27" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ27" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>858.9463719</v>
       </c>
       <c r="AK27" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.589463719</v>
       </c>
       <c r="AL27" s="14"/>
       <c r="AM27" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN27" s="16">
-        <f t="shared" si="4"/>
-        <v>128.8419558</v>
+        <f t="shared" si="5"/>
+        <v>300.6312302</v>
       </c>
       <c r="AO27" s="19" t="s">
         <v>48</v>
@@ -8603,19 +8606,19 @@
         <v>49</v>
       </c>
       <c r="AQ27" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ27:AR27" si="32">if(AS27&gt;1, "ON", "OFF")</f>
         <v>ON</v>
       </c>
       <c r="AR27" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="32"/>
         <v>OFF</v>
       </c>
-      <c r="AS27" s="16">
+      <c r="AS27" s="17">
+        <f>if(and(AN27&gt;index!$C$2, AO27="available", AP27="favourable"), index!$C$2, if(and(AO27="available", AP27="favourable"), AN27, 0))</f>
+        <v>300.6312302</v>
+      </c>
+      <c r="AT27" s="16">
         <f t="shared" si="7"/>
-        <v>128.8419558</v>
-      </c>
-      <c r="AT27" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU27" s="16"/>
@@ -8742,28 +8745,28 @@
         <v>650.4666856</v>
       </c>
       <c r="AH28" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>515.7415573</v>
       </c>
       <c r="AI28" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ28" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>859.5692621</v>
       </c>
       <c r="AK28" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.595692621</v>
       </c>
       <c r="AL28" s="14"/>
       <c r="AM28" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN28" s="16">
-        <f t="shared" si="4"/>
-        <v>128.9353893</v>
+        <f t="shared" si="5"/>
+        <v>300.8492417</v>
       </c>
       <c r="AO28" s="19" t="s">
         <v>48</v>
@@ -8772,19 +8775,19 @@
         <v>49</v>
       </c>
       <c r="AQ28" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ28:AR28" si="33">if(AS28&gt;1, "ON", "OFF")</f>
         <v>ON</v>
       </c>
       <c r="AR28" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>OFF</v>
       </c>
-      <c r="AS28" s="16">
+      <c r="AS28" s="17">
+        <f>if(and(AN28&gt;index!$C$2, AO28="available", AP28="favourable"), index!$C$2, if(and(AO28="available", AP28="favourable"), AN28, 0))</f>
+        <v>300.8492417</v>
+      </c>
+      <c r="AT28" s="16">
         <f t="shared" si="7"/>
-        <v>128.9353893</v>
-      </c>
-      <c r="AT28" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU28" s="16"/>
@@ -8911,28 +8914,28 @@
         <v>625.8614735</v>
       </c>
       <c r="AH29" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>468.8842519</v>
       </c>
       <c r="AI29" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ29" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>781.4737532</v>
       </c>
       <c r="AK29" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.814737532</v>
       </c>
       <c r="AL29" s="14"/>
       <c r="AM29" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN29" s="16">
-        <f t="shared" si="4"/>
-        <v>117.221063</v>
+        <f t="shared" si="5"/>
+        <v>273.5158136</v>
       </c>
       <c r="AO29" s="19" t="s">
         <v>48</v>
@@ -8941,20 +8944,20 @@
         <v>47</v>
       </c>
       <c r="AQ29" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ29:AR29" si="34">if(AS29&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR29" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="34"/>
         <v>ON</v>
       </c>
-      <c r="AS29" s="16">
+      <c r="AS29" s="17">
+        <f>if(and(AN29&gt;index!$C$2, AO29="available", AP29="favourable"), index!$C$2, if(and(AO29="available", AP29="favourable"), AN29, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT29" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT29" s="16">
-        <f t="shared" si="8"/>
-        <v>117.221063</v>
+        <v>273.5158136</v>
       </c>
       <c r="AU29" s="16"/>
       <c r="AV29" s="16"/>
@@ -9080,50 +9083,50 @@
         <v>464.8420689</v>
       </c>
       <c r="AH30" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>482.4854461</v>
       </c>
       <c r="AI30" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ30" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>804.1424102</v>
       </c>
       <c r="AK30" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.041424102</v>
       </c>
       <c r="AL30" s="14"/>
       <c r="AM30" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN30" s="16">
-        <f t="shared" si="4"/>
-        <v>120.6213615</v>
+        <f t="shared" si="5"/>
+        <v>281.4498436</v>
       </c>
       <c r="AO30" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AP30" s="16" t="s">
-        <v>47</v>
+      <c r="AP30" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="AQ30" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ30:AR30" si="35">if(AS30&gt;1, "ON", "OFF")</f>
+        <v>ON</v>
+      </c>
+      <c r="AR30" s="18" t="str">
+        <f t="shared" si="35"/>
         <v>OFF</v>
       </c>
-      <c r="AR30" s="18" t="str">
-        <f t="shared" si="6"/>
-        <v>ON</v>
-      </c>
-      <c r="AS30" s="16">
+      <c r="AS30" s="17">
+        <f>if(and(AN30&gt;index!$C$2, AO30="available", AP30="favourable"), index!$C$2, if(and(AO30="available", AP30="favourable"), AN30, 0))</f>
+        <v>281.4498436</v>
+      </c>
+      <c r="AT30" s="16">
         <f t="shared" si="7"/>
         <v>0</v>
-      </c>
-      <c r="AT30" s="16">
-        <f t="shared" si="8"/>
-        <v>120.6213615</v>
       </c>
       <c r="AU30" s="16"/>
       <c r="AV30" s="16"/>
@@ -9249,28 +9252,28 @@
         <v>681.667073</v>
       </c>
       <c r="AH31" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>618.1177586</v>
       </c>
       <c r="AI31" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ31" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1030.196264</v>
       </c>
       <c r="AK31" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.30196264</v>
       </c>
       <c r="AL31" s="14"/>
       <c r="AM31" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN31" s="16">
-        <f t="shared" si="4"/>
-        <v>154.5294397</v>
+        <f t="shared" si="5"/>
+        <v>360.5686925</v>
       </c>
       <c r="AO31" s="19" t="s">
         <v>48</v>
@@ -9279,19 +9282,19 @@
         <v>49</v>
       </c>
       <c r="AQ31" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ31:AR31" si="36">if(AS31&gt;1, "ON", "OFF")</f>
         <v>ON</v>
       </c>
       <c r="AR31" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="36"/>
         <v>OFF</v>
       </c>
-      <c r="AS31" s="16">
+      <c r="AS31" s="17">
+        <f>if(and(AN31&gt;index!$C$2, AO31="available", AP31="favourable"), index!$C$2, if(and(AO31="available", AP31="favourable"), AN31, 0))</f>
+        <v>360.5686925</v>
+      </c>
+      <c r="AT31" s="16">
         <f t="shared" si="7"/>
-        <v>154.5294397</v>
-      </c>
-      <c r="AT31" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU31" s="16"/>
@@ -9418,28 +9421,28 @@
         <v>786.7948971</v>
       </c>
       <c r="AH32" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>631.6435242</v>
       </c>
       <c r="AI32" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ32" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1052.739207</v>
       </c>
       <c r="AK32" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.52739207</v>
       </c>
       <c r="AL32" s="14"/>
       <c r="AM32" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN32" s="16">
-        <f t="shared" si="4"/>
-        <v>157.910881</v>
+        <f t="shared" si="5"/>
+        <v>368.4587224</v>
       </c>
       <c r="AO32" s="19" t="s">
         <v>48</v>
@@ -9448,19 +9451,19 @@
         <v>49</v>
       </c>
       <c r="AQ32" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ32:AR32" si="37">if(AS32&gt;1, "ON", "OFF")</f>
         <v>ON</v>
       </c>
       <c r="AR32" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="37"/>
         <v>OFF</v>
       </c>
-      <c r="AS32" s="16">
+      <c r="AS32" s="17">
+        <f>if(and(AN32&gt;index!$C$2, AO32="available", AP32="favourable"), index!$C$2, if(and(AO32="available", AP32="favourable"), AN32, 0))</f>
+        <v>368.4587224</v>
+      </c>
+      <c r="AT32" s="16">
         <f t="shared" si="7"/>
-        <v>157.910881</v>
-      </c>
-      <c r="AT32" s="16">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AU32" s="16"/>
@@ -9587,28 +9590,28 @@
         <v>469.7853917</v>
       </c>
       <c r="AH33" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>646.7972077</v>
       </c>
       <c r="AI33" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ33" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1077.995346</v>
       </c>
       <c r="AK33" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.77995346</v>
       </c>
       <c r="AL33" s="14"/>
       <c r="AM33" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN33" s="16">
-        <f t="shared" si="4"/>
-        <v>161.6993019</v>
+        <f t="shared" si="5"/>
+        <v>377.2983711</v>
       </c>
       <c r="AO33" s="19" t="s">
         <v>48</v>
@@ -9617,20 +9620,20 @@
         <v>47</v>
       </c>
       <c r="AQ33" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ33:AR33" si="38">if(AS33&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR33" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="38"/>
         <v>ON</v>
       </c>
-      <c r="AS33" s="16">
+      <c r="AS33" s="17">
+        <f>if(and(AN33&gt;index!$C$2, AO33="available", AP33="favourable"), index!$C$2, if(and(AO33="available", AP33="favourable"), AN33, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT33" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT33" s="16">
-        <f t="shared" si="8"/>
-        <v>161.6993019</v>
+        <v>377.2983711</v>
       </c>
       <c r="AU33" s="16"/>
       <c r="AV33" s="16"/>
@@ -9756,28 +9759,28 @@
         <v>838.0832054</v>
       </c>
       <c r="AH34" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>660.9960331</v>
       </c>
       <c r="AI34" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ34" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1101.660055</v>
       </c>
       <c r="AK34" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.01660055</v>
       </c>
       <c r="AL34" s="14"/>
       <c r="AM34" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN34" s="16">
-        <f t="shared" si="4"/>
-        <v>165.2490083</v>
+        <f t="shared" si="5"/>
+        <v>385.5810193</v>
       </c>
       <c r="AO34" s="19" t="s">
         <v>48</v>
@@ -9786,20 +9789,20 @@
         <v>47</v>
       </c>
       <c r="AQ34" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ34:AR34" si="39">if(AS34&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR34" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="39"/>
         <v>ON</v>
       </c>
-      <c r="AS34" s="16">
+      <c r="AS34" s="17">
+        <f>if(and(AN34&gt;index!$C$2, AO34="available", AP34="favourable"), index!$C$2, if(and(AO34="available", AP34="favourable"), AN34, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT34" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT34" s="16">
-        <f t="shared" si="8"/>
-        <v>165.2490083</v>
+        <v>385.5810193</v>
       </c>
       <c r="AU34" s="16"/>
       <c r="AV34" s="16"/>
@@ -9925,50 +9928,50 @@
         <v>439.8604183</v>
       </c>
       <c r="AH35" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>591.6432903</v>
       </c>
       <c r="AI35" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ35" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>986.0721505</v>
       </c>
       <c r="AK35" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.860721505</v>
       </c>
       <c r="AL35" s="14"/>
       <c r="AM35" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN35" s="16">
-        <f t="shared" si="4"/>
-        <v>147.9108226</v>
+        <f t="shared" si="5"/>
+        <v>345.1252527</v>
       </c>
       <c r="AO35" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AP35" s="16" t="s">
-        <v>47</v>
+      <c r="AP35" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="AQ35" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ35:AR35" si="40">if(AS35&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR35" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="40"/>
         <v>ON</v>
       </c>
-      <c r="AS35" s="16">
+      <c r="AS35" s="17">
+        <f>if(and(AN35&gt;index!$C$2, AO35="available", AP35="favourable"), index!$C$2, if(and(AO35="available", AP35="favourable"), AN35, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT35" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT35" s="16">
-        <f t="shared" si="8"/>
-        <v>147.9108226</v>
+        <v>345.1252527</v>
       </c>
       <c r="AU35" s="16"/>
       <c r="AV35" s="16"/>
@@ -10094,28 +10097,28 @@
         <v>532.1926499</v>
       </c>
       <c r="AH36" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>556.653992</v>
       </c>
       <c r="AI36" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ36" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>927.7566533</v>
       </c>
       <c r="AK36" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.277566533</v>
       </c>
       <c r="AL36" s="14"/>
       <c r="AM36" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN36" s="16">
-        <f t="shared" si="4"/>
-        <v>139.163498</v>
+        <f t="shared" si="5"/>
+        <v>324.7148287</v>
       </c>
       <c r="AO36" s="19" t="s">
         <v>46</v>
@@ -10124,20 +10127,20 @@
         <v>47</v>
       </c>
       <c r="AQ36" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ36:AR36" si="41">if(AS36&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR36" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="41"/>
         <v>ON</v>
       </c>
-      <c r="AS36" s="16">
+      <c r="AS36" s="17">
+        <f>if(and(AN36&gt;index!$C$2, AO36="available", AP36="favourable"), index!$C$2, if(and(AO36="available", AP36="favourable"), AN36, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT36" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT36" s="16">
-        <f t="shared" si="8"/>
-        <v>139.163498</v>
+        <v>324.7148287</v>
       </c>
       <c r="AU36" s="16"/>
       <c r="AV36" s="16"/>
@@ -10263,28 +10266,28 @@
         <v>385.1169792</v>
       </c>
       <c r="AH37" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>351.0694267</v>
       </c>
       <c r="AI37" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ37" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>585.1157112</v>
       </c>
       <c r="AK37" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.851157112</v>
       </c>
       <c r="AL37" s="14"/>
       <c r="AM37" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN37" s="16">
-        <f t="shared" si="4"/>
-        <v>87.76735667</v>
+        <f t="shared" si="5"/>
+        <v>204.7904989</v>
       </c>
       <c r="AO37" s="12" t="s">
         <v>46</v>
@@ -10293,20 +10296,20 @@
         <v>47</v>
       </c>
       <c r="AQ37" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ37:AR37" si="42">if(AS37&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR37" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="42"/>
         <v>ON</v>
       </c>
-      <c r="AS37" s="16">
+      <c r="AS37" s="17">
+        <f>if(and(AN37&gt;index!$C$2, AO37="available", AP37="favourable"), index!$C$2, if(and(AO37="available", AP37="favourable"), AN37, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT37" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT37" s="16">
-        <f t="shared" si="8"/>
-        <v>87.76735667</v>
+        <v>204.7904989</v>
       </c>
       <c r="AU37" s="16"/>
       <c r="AV37" s="16"/>
@@ -10432,28 +10435,28 @@
         <v>577.1607821</v>
       </c>
       <c r="AH38" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>536.9389262</v>
       </c>
       <c r="AI38" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ38" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>894.8982103</v>
       </c>
       <c r="AK38" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.948982103</v>
       </c>
       <c r="AL38" s="14"/>
       <c r="AM38" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN38" s="16">
-        <f t="shared" si="4"/>
-        <v>134.2347315</v>
+        <f t="shared" si="5"/>
+        <v>313.2143736</v>
       </c>
       <c r="AO38" s="12" t="s">
         <v>46</v>
@@ -10462,20 +10465,20 @@
         <v>47</v>
       </c>
       <c r="AQ38" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ38:AR38" si="43">if(AS38&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR38" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="43"/>
         <v>ON</v>
       </c>
-      <c r="AS38" s="16">
+      <c r="AS38" s="17">
+        <f>if(and(AN38&gt;index!$C$2, AO38="available", AP38="favourable"), index!$C$2, if(and(AO38="available", AP38="favourable"), AN38, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT38" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT38" s="16">
-        <f t="shared" si="8"/>
-        <v>134.2347315</v>
+        <v>313.2143736</v>
       </c>
       <c r="AU38" s="16"/>
       <c r="AV38" s="16"/>
@@ -10601,28 +10604,28 @@
         <v>426.8521555</v>
       </c>
       <c r="AH39" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>452.6676652</v>
       </c>
       <c r="AI39" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ39" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>754.4461087</v>
       </c>
       <c r="AK39" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.544461087</v>
       </c>
       <c r="AL39" s="14"/>
       <c r="AM39" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN39" s="16">
-        <f t="shared" si="4"/>
-        <v>113.1669163</v>
+        <f t="shared" si="5"/>
+        <v>264.0561381</v>
       </c>
       <c r="AO39" s="12" t="s">
         <v>46</v>
@@ -10631,20 +10634,20 @@
         <v>47</v>
       </c>
       <c r="AQ39" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ39:AR39" si="44">if(AS39&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR39" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="44"/>
         <v>ON</v>
       </c>
-      <c r="AS39" s="16">
+      <c r="AS39" s="17">
+        <f>if(and(AN39&gt;index!$C$2, AO39="available", AP39="favourable"), index!$C$2, if(and(AO39="available", AP39="favourable"), AN39, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT39" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT39" s="16">
-        <f t="shared" si="8"/>
-        <v>113.1669163</v>
+        <v>264.0561381</v>
       </c>
       <c r="AU39" s="16"/>
       <c r="AV39" s="16"/>
@@ -10770,28 +10773,28 @@
         <v>592.0738124</v>
       </c>
       <c r="AH40" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>551.6711307</v>
       </c>
       <c r="AI40" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ40" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>919.4518845</v>
       </c>
       <c r="AK40" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.194518845</v>
       </c>
       <c r="AL40" s="14"/>
       <c r="AM40" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN40" s="16">
-        <f t="shared" si="4"/>
-        <v>137.9177827</v>
+        <f t="shared" si="5"/>
+        <v>321.8081596</v>
       </c>
       <c r="AO40" s="12" t="s">
         <v>46</v>
@@ -10800,20 +10803,20 @@
         <v>47</v>
       </c>
       <c r="AQ40" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ40:AR40" si="45">if(AS40&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR40" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="45"/>
         <v>ON</v>
       </c>
-      <c r="AS40" s="16">
+      <c r="AS40" s="17">
+        <f>if(and(AN40&gt;index!$C$2, AO40="available", AP40="favourable"), index!$C$2, if(and(AO40="available", AP40="favourable"), AN40, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT40" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT40" s="16">
-        <f t="shared" si="8"/>
-        <v>137.9177827</v>
+        <v>321.8081596</v>
       </c>
       <c r="AU40" s="16"/>
       <c r="AV40" s="16"/>
@@ -10939,28 +10942,28 @@
         <v>1124.388399</v>
       </c>
       <c r="AH41" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1364.153931</v>
       </c>
       <c r="AI41" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ41" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2273.589885</v>
       </c>
       <c r="AK41" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.73589885</v>
       </c>
       <c r="AL41" s="14"/>
       <c r="AM41" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN41" s="16">
-        <f t="shared" si="4"/>
-        <v>341.0384827</v>
+        <f t="shared" si="5"/>
+        <v>795.7564596</v>
       </c>
       <c r="AO41" s="12" t="s">
         <v>46</v>
@@ -10969,20 +10972,20 @@
         <v>47</v>
       </c>
       <c r="AQ41" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ41:AR41" si="46">if(AS41&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR41" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="46"/>
         <v>ON</v>
       </c>
-      <c r="AS41" s="16">
+      <c r="AS41" s="17">
+        <f>if(and(AN41&gt;index!$C$2, AO41="available", AP41="favourable"), index!$C$2, if(and(AO41="available", AP41="favourable"), AN41, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT41" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT41" s="16">
-        <f t="shared" si="8"/>
-        <v>341.0384827</v>
+        <v>795.7564596</v>
       </c>
       <c r="AU41" s="16"/>
       <c r="AV41" s="16"/>
@@ -11108,28 +11111,28 @@
         <v>1894.547308</v>
       </c>
       <c r="AH42" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1792.697712</v>
       </c>
       <c r="AI42" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ42" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2987.82952</v>
       </c>
       <c r="AK42" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29.8782952</v>
       </c>
       <c r="AL42" s="14"/>
       <c r="AM42" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN42" s="16">
-        <f t="shared" si="4"/>
-        <v>448.174428</v>
+        <f t="shared" si="5"/>
+        <v>1045.740332</v>
       </c>
       <c r="AO42" s="19" t="s">
         <v>46</v>
@@ -11138,20 +11141,20 @@
         <v>47</v>
       </c>
       <c r="AQ42" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ42:AR42" si="47">if(AS42&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR42" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="47"/>
         <v>ON</v>
       </c>
-      <c r="AS42" s="16">
+      <c r="AS42" s="17">
+        <f>if(and(AN42&gt;index!$C$2, AO42="available", AP42="favourable"), index!$C$2, if(and(AO42="available", AP42="favourable"), AN42, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT42" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT42" s="16">
-        <f t="shared" si="8"/>
-        <v>448.174428</v>
+        <v>1045.740332</v>
       </c>
       <c r="AU42" s="16"/>
       <c r="AV42" s="16"/>
@@ -11277,28 +11280,28 @@
         <v>1601.196312</v>
       </c>
       <c r="AH43" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1533.193917</v>
       </c>
       <c r="AI43" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ43" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2555.323195</v>
       </c>
       <c r="AK43" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25.55323195</v>
       </c>
       <c r="AL43" s="14"/>
       <c r="AM43" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN43" s="16">
-        <f t="shared" si="4"/>
-        <v>383.2984792</v>
+        <f t="shared" si="5"/>
+        <v>894.3631182</v>
       </c>
       <c r="AO43" s="12" t="s">
         <v>46</v>
@@ -11307,20 +11310,20 @@
         <v>47</v>
       </c>
       <c r="AQ43" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ43:AR43" si="48">if(AS43&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR43" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="48"/>
         <v>ON</v>
       </c>
-      <c r="AS43" s="16">
+      <c r="AS43" s="17">
+        <f>if(and(AN43&gt;index!$C$2, AO43="available", AP43="favourable"), index!$C$2, if(and(AO43="available", AP43="favourable"), AN43, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT43" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT43" s="16">
-        <f t="shared" si="8"/>
-        <v>383.2984792</v>
+        <v>894.3631182</v>
       </c>
       <c r="AU43" s="16"/>
       <c r="AV43" s="16"/>
@@ -11446,28 +11449,28 @@
         <v>1172.722692</v>
       </c>
       <c r="AH44" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1361.95817</v>
       </c>
       <c r="AI44" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ44" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2269.930284</v>
       </c>
       <c r="AK44" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.69930284</v>
       </c>
       <c r="AL44" s="14"/>
       <c r="AM44" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN44" s="16">
-        <f t="shared" si="4"/>
-        <v>340.4895426</v>
+        <f t="shared" si="5"/>
+        <v>794.4755994</v>
       </c>
       <c r="AO44" s="12" t="s">
         <v>46</v>
@@ -11476,20 +11479,20 @@
         <v>47</v>
       </c>
       <c r="AQ44" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ44:AR44" si="49">if(AS44&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR44" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="49"/>
         <v>ON</v>
       </c>
-      <c r="AS44" s="16">
+      <c r="AS44" s="17">
+        <f>if(and(AN44&gt;index!$C$2, AO44="available", AP44="favourable"), index!$C$2, if(and(AO44="available", AP44="favourable"), AN44, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT44" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT44" s="16">
-        <f t="shared" si="8"/>
-        <v>340.4895426</v>
+        <v>794.4755994</v>
       </c>
       <c r="AU44" s="16"/>
       <c r="AV44" s="16"/>
@@ -11615,28 +11618,28 @@
         <v>690.4886108</v>
       </c>
       <c r="AH45" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>620.6220629</v>
       </c>
       <c r="AI45" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ45" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1034.370105</v>
       </c>
       <c r="AK45" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.34370105</v>
       </c>
       <c r="AL45" s="14"/>
       <c r="AM45" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN45" s="16">
-        <f t="shared" si="4"/>
-        <v>155.1555157</v>
+        <f t="shared" si="5"/>
+        <v>362.0295367</v>
       </c>
       <c r="AO45" s="12" t="s">
         <v>46</v>
@@ -11645,20 +11648,20 @@
         <v>47</v>
       </c>
       <c r="AQ45" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ45:AR45" si="50">if(AS45&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR45" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="50"/>
         <v>ON</v>
       </c>
-      <c r="AS45" s="16">
+      <c r="AS45" s="17">
+        <f>if(and(AN45&gt;index!$C$2, AO45="available", AP45="favourable"), index!$C$2, if(and(AO45="available", AP45="favourable"), AN45, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT45" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT45" s="16">
-        <f t="shared" si="8"/>
-        <v>155.1555157</v>
+        <v>362.0295367</v>
       </c>
       <c r="AU45" s="16"/>
       <c r="AV45" s="16"/>
@@ -11784,28 +11787,28 @@
         <v>598.485606</v>
       </c>
       <c r="AH46" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>712.7960558</v>
       </c>
       <c r="AI46" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ46" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1187.993426</v>
       </c>
       <c r="AK46" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.87993426</v>
       </c>
       <c r="AL46" s="14"/>
       <c r="AM46" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN46" s="16">
-        <f t="shared" si="4"/>
-        <v>178.199014</v>
+        <f t="shared" si="5"/>
+        <v>415.7976992</v>
       </c>
       <c r="AO46" s="19" t="s">
         <v>46</v>
@@ -11814,20 +11817,20 @@
         <v>47</v>
       </c>
       <c r="AQ46" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ46:AR46" si="51">if(AS46&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR46" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="51"/>
         <v>ON</v>
       </c>
-      <c r="AS46" s="16">
+      <c r="AS46" s="17">
+        <f>if(and(AN46&gt;index!$C$2, AO46="available", AP46="favourable"), index!$C$2, if(and(AO46="available", AP46="favourable"), AN46, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT46" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT46" s="16">
-        <f t="shared" si="8"/>
-        <v>178.199014</v>
+        <v>415.7976992</v>
       </c>
       <c r="AU46" s="16"/>
       <c r="AV46" s="16"/>
@@ -11953,28 +11956,28 @@
         <v>830.7871155</v>
       </c>
       <c r="AH47" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>643.0596108</v>
       </c>
       <c r="AI47" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ47" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1071.766018</v>
       </c>
       <c r="AK47" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.71766018</v>
       </c>
       <c r="AL47" s="14"/>
       <c r="AM47" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN47" s="16">
-        <f t="shared" si="4"/>
-        <v>160.7649027</v>
+        <f t="shared" si="5"/>
+        <v>375.1181063</v>
       </c>
       <c r="AO47" s="12" t="s">
         <v>46</v>
@@ -11983,20 +11986,20 @@
         <v>47</v>
       </c>
       <c r="AQ47" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ47:AR47" si="52">if(AS47&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR47" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="52"/>
         <v>ON</v>
       </c>
-      <c r="AS47" s="16">
+      <c r="AS47" s="17">
+        <f>if(and(AN47&gt;index!$C$2, AO47="available", AP47="favourable"), index!$C$2, if(and(AO47="available", AP47="favourable"), AN47, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT47" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT47" s="16">
-        <f t="shared" si="8"/>
-        <v>160.7649027</v>
+        <v>375.1181063</v>
       </c>
       <c r="AU47" s="16"/>
       <c r="AV47" s="16"/>
@@ -12122,28 +12125,28 @@
         <v>693.0827285</v>
       </c>
       <c r="AH48" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>668.9895594</v>
       </c>
       <c r="AI48" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ48" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1114.982599</v>
       </c>
       <c r="AK48" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.14982599</v>
       </c>
       <c r="AL48" s="14"/>
       <c r="AM48" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN48" s="16">
-        <f t="shared" si="4"/>
-        <v>167.2473899</v>
+        <f t="shared" si="5"/>
+        <v>390.2439097</v>
       </c>
       <c r="AO48" s="12" t="s">
         <v>46</v>
@@ -12152,20 +12155,20 @@
         <v>47</v>
       </c>
       <c r="AQ48" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ48:AR48" si="53">if(AS48&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR48" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="53"/>
         <v>ON</v>
       </c>
-      <c r="AS48" s="16">
+      <c r="AS48" s="17">
+        <f>if(and(AN48&gt;index!$C$2, AO48="available", AP48="favourable"), index!$C$2, if(and(AO48="available", AP48="favourable"), AN48, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT48" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT48" s="16">
-        <f t="shared" si="8"/>
-        <v>167.2473899</v>
+        <v>390.2439097</v>
       </c>
       <c r="AU48" s="16"/>
       <c r="AV48" s="16"/>
@@ -12291,28 +12294,28 @@
         <v>771.1733751</v>
       </c>
       <c r="AH49" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>604.7517028</v>
       </c>
       <c r="AI49" s="13">
         <v>0.6</v>
       </c>
       <c r="AJ49" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1007.919505</v>
       </c>
       <c r="AK49" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.07919505</v>
       </c>
       <c r="AL49" s="14"/>
       <c r="AM49" s="13">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="8"/>
+        <v>0.35</v>
       </c>
       <c r="AN49" s="16">
-        <f t="shared" si="4"/>
-        <v>151.1879257</v>
+        <f t="shared" si="5"/>
+        <v>352.7718267</v>
       </c>
       <c r="AO49" s="12" t="s">
         <v>46</v>
@@ -12321,20 +12324,20 @@
         <v>47</v>
       </c>
       <c r="AQ49" s="18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AQ49:AR49" si="54">if(AS49&gt;1, "ON", "OFF")</f>
         <v>OFF</v>
       </c>
       <c r="AR49" s="18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="54"/>
         <v>ON</v>
       </c>
-      <c r="AS49" s="16">
+      <c r="AS49" s="17">
+        <f>if(and(AN49&gt;index!$C$2, AO49="available", AP49="favourable"), index!$C$2, if(and(AO49="available", AP49="favourable"), AN49, 0))</f>
+        <v>0</v>
+      </c>
+      <c r="AT49" s="16">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AT49" s="16">
-        <f t="shared" si="8"/>
-        <v>151.1879257</v>
+        <v>352.7718267</v>
       </c>
       <c r="AU49" s="16"/>
       <c r="AV49" s="16"/>
@@ -12360,26 +12363,6 @@
       <c r="BP49" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="AQ2:AQ49">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="ON">
-      <formula>NOT(ISERROR(SEARCH(("ON"),(AQ2))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ2:AQ49">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="off">
-      <formula>NOT(ISERROR(SEARCH(("off"),(AQ2))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR2:AR49">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="ON">
-      <formula>NOT(ISERROR(SEARCH(("ON"),(AR2))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AR2:AR49">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="OFF">
-      <formula>NOT(ISERROR(SEARCH(("OFF"),(AR2))))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -12394,22 +12377,75 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>53</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="19">
+        <v>500.0</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="19">
+        <v>3500.0</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
